--- a/biology/Zoologie/Île_Isabel_(Mexique)/Île_Isabel_(Mexique).xlsx
+++ b/biology/Zoologie/Île_Isabel_(Mexique)/Île_Isabel_(Mexique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%8Ele_Isabel_(Mexique)</t>
+          <t>Île_Isabel_(Mexique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'île Isabel est une île de l'océan Pacifique, située sur le territoire de la municipalité de Santiago Ixcuintla (es) au Nayarit. 
-Cette île a été reconnue site Ramsar le 27 novembre 2003[1]. 
+Cette île a été reconnue site Ramsar le 27 novembre 2003. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%8Ele_Isabel_(Mexique)</t>
+          <t>Île_Isabel_(Mexique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le capitaine Abel Aubert Dupetit-Thouars a accosté sur l'île en 1836.
 Par arrêté fédéral publié dans du Diario Oficial de la Federación  l'île a été déclarée comme parc national le 8 décembre 1980 et est administrée par l'université nationale autonome du Mexique et l'Institut national d'Écologie.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%8Ele_Isabel_(Mexique)</t>
+          <t>Île_Isabel_(Mexique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'île est d'origine volcanique, avec une altitude maximale de 140 mètres. Elle est localisée à 70 km de San Blas au Nayarit. Elle a une surface de 1,94 km2
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%8Ele_Isabel_(Mexique)</t>
+          <t>Île_Isabel_(Mexique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Démographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est occupée de manière temporaire par des chercheurs, des pêcheurs et des touristes. Elle héberge une localité dénommée Campamento Isla Isabel.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%8Ele_Isabel_(Mexique)</t>
+          <t>Île_Isabel_(Mexique)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les eaux entourant l'île abritent 24 espèces de requins et de raies, 3 espèces de tortues marines, mais aussi des mammifères : Otarie de Californie (Zalophus californianus), Baleine à bosse, Orque...
 L'île abrite des colonies d'oiseaux marins : Frégate superbe, Fou à pieds bleus, Fou brun, Sterne fuligineuse (Sterna fuscata)...
